--- a/data/evaluation/evaluation_South_Spring_Oranges.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Oranges.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1654.15632183908</v>
+        <v>1663.756321839081</v>
       </c>
       <c r="C3" t="n">
-        <v>6026965.542079534</v>
+        <v>6144469.542079534</v>
       </c>
       <c r="D3" t="n">
-        <v>2454.987890414031</v>
+        <v>2478.8040547973</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05074068909058593</v>
+        <v>-0.07122632702378384</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1585.120475248161</v>
+        <v>1587.466915034279</v>
       </c>
       <c r="C4" t="n">
-        <v>5584220.565198869</v>
+        <v>5522372.349104438</v>
       </c>
       <c r="D4" t="n">
-        <v>2363.095547200508</v>
+        <v>2349.972840078038</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02644743465940802</v>
+        <v>0.03723004769151506</v>
       </c>
     </row>
     <row r="5">
